--- a/Karten Excel.xlsx
+++ b/Karten Excel.xlsx
@@ -157,7 +157,11 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -165,6 +169,24 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A2:I15" totalsRowShown="0">
+  <autoFilter ref="A2:I15"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="Name"/>
+    <tableColumn id="2" name="HP"/>
+    <tableColumn id="3" name="max HP"/>
+    <tableColumn id="4" name="Schaden"/>
+    <tableColumn id="5" name="Mana Kosten"/>
+    <tableColumn id="6" name="Auswirken auf Mana Reg"/>
+    <tableColumn id="7" name="Crit Chance" dataDxfId="0"/>
+    <tableColumn id="8" name="Special"/>
+    <tableColumn id="9" name="Unbeweglich?"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium8" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -456,19 +478,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="6" max="6" width="25" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="8" max="8" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -879,7 +903,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="98" orientation="landscape" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
